--- a/RF_Results.xlsx
+++ b/RF_Results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjohnston/Desktop/AstroCode/LINEARSupervisedClassification/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D22E07-DAF1-B143-BD62-CD0D95E3EE76}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="396" windowWidth="12132" windowHeight="3924"/>
+    <workbookView xWindow="6020" yWindow="460" windowWidth="20340" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassMembersFound" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="Training Reduced" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -163,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -701,12 +707,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -734,18 +743,42 @@
             <c:dLbl>
               <c:idx val="0"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -761,71 +794,180 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="19"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="21"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="24"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="26"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="31"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-9971-F74B-8CA7-F8B2FFD83967}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -833,6 +975,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1043,6 +1188,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-9971-F74B-8CA7-F8B2FFD83967}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1069,7 +1219,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1097,87 +1247,220 @@
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="19"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="21"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="22"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="23"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="24"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="25"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="26"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-ED4E-4646-A0C6-C35E7954A8D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -1185,6 +1468,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1395,6 +1681,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-ED4E-4646-A0C6-C35E7954A8D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1437,7 +1728,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1459,20 +1756,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1533,7 +1836,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1566,9 +1869,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1601,6 +1921,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1776,23 +2113,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +2146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1830,7 +2167,7 @@
         <v>40.378048769999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1851,7 +2188,7 @@
         <v>2.9240506320000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1872,7 +2209,7 @@
         <v>667.42857151199996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1893,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1914,7 +2251,7 @@
         <v>2.7209302319999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1935,7 +2272,7 @@
         <v>196.641304308</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1956,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1977,7 +2314,7 @@
         <v>16.466666672999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1998,7 +2335,7 @@
         <v>19.933333340999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2019,7 +2356,7 @@
         <v>1043.9302323439999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2040,7 +2377,7 @@
         <v>63.101123567999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2061,7 +2398,7 @@
         <v>532.84403660400005</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2082,7 +2419,7 @@
         <v>62.740740744</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2103,7 +2440,7 @@
         <v>295.045871508</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2124,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2145,7 +2482,7 @@
         <v>431.72093014399996</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2166,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2187,7 +2524,7 @@
         <v>42.067415711999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2208,7 +2545,7 @@
         <v>6402.3488358959994</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2229,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2250,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2271,7 +2608,7 @@
         <v>34.465116271999996</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2292,7 +2629,7 @@
         <v>122.56880731800001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2313,7 +2650,7 @@
         <v>961.50943379399996</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2334,7 +2671,7 @@
         <v>65.660377346999994</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2355,7 +2692,7 @@
         <v>7439.2592618629997</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2376,7 +2713,7 @@
         <v>53.239130423999995</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2397,7 +2734,7 @@
         <v>180.16806734400001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2418,7 +2755,7 @@
         <v>0.77669902899999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2439,7 +2776,7 @@
         <v>158.87341767199999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2460,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2481,7 +2818,7 @@
         <v>88.883720912000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C34">
         <f>SUM(C2:C33)</f>
         <v>23397</v>
@@ -2495,20 +2832,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>39</v>
       </c>
@@ -2525,12 +2865,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>164</v>
       </c>
       <c r="C2" s="3">
-        <f>B2/$B$34</f>
+        <f t="shared" ref="C2:C33" si="0">B2/$B$34</f>
         <v>7.9844206426484904E-2</v>
       </c>
       <c r="D2" t="s">
@@ -2543,12 +2883,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" s="3">
-        <f>B3/$B$34</f>
+        <f t="shared" si="0"/>
         <v>4.9172346640701074E-2</v>
       </c>
       <c r="D3" t="s">
@@ -2561,12 +2901,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <f>B4/$B$34</f>
+        <f t="shared" si="0"/>
         <v>7.3028237585199612E-3</v>
       </c>
       <c r="D4" t="s">
@@ -2579,12 +2919,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>29</v>
       </c>
       <c r="C5" s="3">
-        <f>B5/$B$34</f>
+        <f t="shared" si="0"/>
         <v>1.4118792599805257E-2</v>
       </c>
       <c r="D5" t="s">
@@ -2597,12 +2937,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>54</v>
       </c>
       <c r="C6" s="3">
-        <f>B6/$B$34</f>
+        <f t="shared" si="0"/>
         <v>2.6290165530671861E-2</v>
       </c>
       <c r="D6" t="s">
@@ -2615,12 +2955,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>25</v>
       </c>
       <c r="C7" s="3">
-        <f>B7/$B$34</f>
+        <f t="shared" si="0"/>
         <v>1.2171372930866602E-2</v>
       </c>
       <c r="D7" t="s">
@@ -2633,12 +2973,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>204</v>
       </c>
       <c r="C8" s="3">
-        <f>B8/$B$34</f>
+        <f t="shared" si="0"/>
         <v>9.9318403115871465E-2</v>
       </c>
       <c r="D8" t="s">
@@ -2651,12 +2991,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>27</v>
       </c>
       <c r="C9" s="3">
-        <f>B9/$B$34</f>
+        <f t="shared" si="0"/>
         <v>1.3145082765335931E-2</v>
       </c>
       <c r="D9" t="s">
@@ -2669,12 +3009,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>98</v>
       </c>
       <c r="C10" s="3">
-        <f>B10/$B$34</f>
+        <f t="shared" si="0"/>
         <v>4.7711781888997079E-2</v>
       </c>
       <c r="D10" t="s">
@@ -2687,12 +3027,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>148</v>
       </c>
       <c r="C11" s="3">
-        <f>B11/$B$34</f>
+        <f t="shared" si="0"/>
         <v>7.2054527750730277E-2</v>
       </c>
       <c r="D11" t="s">
@@ -2705,12 +3045,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>39</v>
       </c>
       <c r="C12" s="3">
-        <f>B12/$B$34</f>
+        <f t="shared" si="0"/>
         <v>1.8987341772151899E-2</v>
       </c>
       <c r="D12" t="s">
@@ -2723,12 +3063,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>59</v>
       </c>
       <c r="C13" s="3">
-        <f>B13/$B$34</f>
+        <f t="shared" si="0"/>
         <v>2.872444011684518E-2</v>
       </c>
       <c r="D13" t="s">
@@ -2741,12 +3081,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>133</v>
       </c>
       <c r="C14" s="3">
-        <f>B14/$B$34</f>
+        <f t="shared" si="0"/>
         <v>6.4751703992210322E-2</v>
       </c>
       <c r="D14" t="s">
@@ -2759,12 +3099,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" s="3">
-        <f>B15/$B$34</f>
+        <f t="shared" si="0"/>
         <v>2.9211295034079843E-3</v>
       </c>
       <c r="D15" t="s">
@@ -2777,12 +3117,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" s="3">
-        <f>B16/$B$34</f>
+        <f t="shared" si="0"/>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="D16" t="s">
@@ -2795,12 +3135,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>55</v>
       </c>
       <c r="C17" s="3">
-        <f>B17/$B$34</f>
+        <f t="shared" si="0"/>
         <v>2.6777020447906523E-2</v>
       </c>
       <c r="D17" t="s">
@@ -2813,199 +3153,199 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>30</v>
       </c>
       <c r="C18" s="3">
-        <f>B18/$B$34</f>
+        <f t="shared" si="0"/>
         <v>1.4605647517039922E-2</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>28</v>
       </c>
       <c r="C19" s="3">
-        <f>B19/$B$34</f>
+        <f t="shared" si="0"/>
         <v>1.3631937682570594E-2</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>49</v>
       </c>
       <c r="C20" s="3">
-        <f>B20/$B$34</f>
+        <f t="shared" si="0"/>
         <v>2.385589094449854E-2</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>55</v>
       </c>
       <c r="C21" s="3">
-        <f>B21/$B$34</f>
+        <f t="shared" si="0"/>
         <v>2.6777020447906523E-2</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>75</v>
       </c>
       <c r="C22" s="3">
-        <f>B22/$B$34</f>
+        <f t="shared" si="0"/>
         <v>3.6514118792599803E-2</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>42</v>
       </c>
       <c r="C23" s="3">
-        <f>B23/$B$34</f>
+        <f t="shared" si="0"/>
         <v>2.0447906523855891E-2</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>13</v>
       </c>
       <c r="C24" s="3">
-        <f>B24/$B$34</f>
+        <f t="shared" si="0"/>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>12</v>
       </c>
       <c r="C25" s="3">
-        <f>B25/$B$34</f>
+        <f t="shared" si="0"/>
         <v>5.8422590068159686E-3</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>20</v>
       </c>
       <c r="C26" s="3">
-        <f>B26/$B$34</f>
+        <f t="shared" si="0"/>
         <v>9.7370983446932822E-3</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>17</v>
       </c>
       <c r="C27" s="3">
-        <f>B27/$B$34</f>
+        <f t="shared" si="0"/>
         <v>8.2765335929892887E-3</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>22</v>
       </c>
       <c r="C28" s="3">
-        <f>B28/$B$34</f>
+        <f t="shared" si="0"/>
         <v>1.0710808179162609E-2</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" s="3">
-        <f>B29/$B$34</f>
+        <f t="shared" si="0"/>
         <v>3.4079844206426485E-3</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>13</v>
       </c>
       <c r="C30" s="3">
-        <f>B30/$B$34</f>
+        <f t="shared" si="0"/>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>178</v>
       </c>
       <c r="C31" s="3">
-        <f>B31/$B$34</f>
+        <f t="shared" si="0"/>
         <v>8.6660175267770201E-2</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>202</v>
       </c>
       <c r="C32" s="3">
-        <f>B32/$B$34</f>
+        <f t="shared" si="0"/>
         <v>9.8344693281402148E-2</v>
       </c>
       <c r="D32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>121</v>
       </c>
       <c r="C33" s="3">
-        <f>B33/$B$34</f>
+        <f t="shared" si="0"/>
         <v>5.8909444985394355E-2</v>
       </c>
       <c r="D33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34">
         <f>SUM(B2:B33)</f>
         <v>2054</v>
@@ -3018,30 +3358,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3073,7 +3413,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3256</v>
       </c>
@@ -3111,7 +3451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -3149,7 +3489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4291</v>
       </c>
@@ -3187,7 +3527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3225,7 +3565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -3263,7 +3603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5642</v>
       </c>
@@ -3301,7 +3641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31</v>
       </c>
@@ -3339,7 +3679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>326</v>
       </c>
@@ -3377,7 +3717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>556</v>
       </c>
@@ -3415,7 +3755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>13470</v>
       </c>
@@ -3453,7 +3793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1276</v>
       </c>
@@ -3491,7 +3831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9800</v>
       </c>
@@ -3529,7 +3869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>493</v>
       </c>
@@ -3567,7 +3907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9118</v>
       </c>
@@ -3605,7 +3945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>69</v>
       </c>
@@ -3643,7 +3983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2378</v>
       </c>
@@ -3687,21 +4027,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -3721,7 +4061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>164</v>
       </c>
@@ -3744,7 +4084,7 @@
         <v>0.25024342745861733</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>101</v>
       </c>
@@ -3767,7 +4107,7 @@
         <v>6.5725413826679652E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15</v>
       </c>
@@ -3790,7 +4130,7 @@
         <v>0.57400194741966892</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>29</v>
       </c>
@@ -3813,7 +4153,7 @@
         <v>0.11002921129503408</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>54</v>
       </c>
@@ -3825,7 +4165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25</v>
       </c>
@@ -3837,7 +4177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>204</v>
       </c>
@@ -3849,7 +4189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>27</v>
       </c>
@@ -3861,7 +4201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>98</v>
       </c>
@@ -3873,7 +4213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>148</v>
       </c>
@@ -3885,7 +4225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>39</v>
       </c>
@@ -3897,7 +4237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>59</v>
       </c>
@@ -3909,7 +4249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>133</v>
       </c>
@@ -3921,7 +4261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -3933,7 +4273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3945,7 +4285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>55</v>
       </c>
@@ -3957,7 +4297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30</v>
       </c>
@@ -3969,7 +4309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -3981,7 +4321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>49</v>
       </c>
@@ -3993,7 +4333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>55</v>
       </c>
@@ -4005,7 +4345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>75</v>
       </c>
@@ -4017,7 +4357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>42</v>
       </c>
@@ -4029,7 +4369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>13</v>
       </c>
@@ -4041,7 +4381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12</v>
       </c>
@@ -4053,7 +4393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -4065,7 +4405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>17</v>
       </c>
@@ -4077,7 +4417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>22</v>
       </c>
@@ -4089,7 +4429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -4101,7 +4441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>13</v>
       </c>
@@ -4113,7 +4453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>178</v>
       </c>
@@ -4125,7 +4465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>202</v>
       </c>
@@ -4137,7 +4477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>121</v>
       </c>
@@ -4149,7 +4489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>SUM(A2:A33)</f>
         <v>2054</v>
